--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Erbb3</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +534,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +549,40 @@
         <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J2">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1605563333333333</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N2">
-        <v>0.481669</v>
+        <v>0.168642</v>
       </c>
       <c r="O2">
-        <v>0.01905578313479183</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P2">
-        <v>0.02595755287029415</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q2">
-        <v>0.01032163148222222</v>
+        <v>0.00542071602</v>
       </c>
       <c r="R2">
-        <v>0.09289468334000001</v>
+        <v>0.03252429612</v>
       </c>
       <c r="S2">
-        <v>0.0002093151721375273</v>
+        <v>4.811345184058284E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004253537060918827</v>
+        <v>6.797280919781805E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,10 +611,10 @@
         <v>0.19286</v>
       </c>
       <c r="I3">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J3">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5664446666666666</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N3">
-        <v>1.699334</v>
+        <v>0.481669</v>
       </c>
       <c r="O3">
-        <v>0.06722903109309158</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P3">
-        <v>0.09157855736883302</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q3">
-        <v>0.03641483947111111</v>
+        <v>0.01032163148222222</v>
       </c>
       <c r="R3">
-        <v>0.32773355524</v>
+        <v>0.09289468334000001</v>
       </c>
       <c r="S3">
-        <v>0.0007384664338563468</v>
+        <v>9.161323290205167E-05</v>
       </c>
       <c r="T3">
-        <v>0.001500652968714913</v>
+        <v>0.0001941414062540994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +673,40 @@
         <v>0.19286</v>
       </c>
       <c r="I4">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J4">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7207635</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N4">
-        <v>13.441527</v>
+        <v>1.727297</v>
       </c>
       <c r="O4">
-        <v>0.797660292168841</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P4">
-        <v>0.7243753443962271</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q4">
-        <v>0.4320554828700001</v>
+        <v>0.03701405549111111</v>
       </c>
       <c r="R4">
-        <v>2.59233289722</v>
+        <v>0.33312649942</v>
       </c>
       <c r="S4">
-        <v>0.008761770648919342</v>
+        <v>0.000328531133105961</v>
       </c>
       <c r="T4">
-        <v>0.0118699840035047</v>
+        <v>0.0006962039670364651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,40 +735,40 @@
         <v>0.19286</v>
       </c>
       <c r="I5">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J5">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08863199999999999</v>
+        <v>9.042617</v>
       </c>
       <c r="N5">
-        <v>0.265896</v>
+        <v>18.085234</v>
       </c>
       <c r="O5">
-        <v>0.01051937432637061</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P5">
-        <v>0.01432936202661938</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q5">
-        <v>0.00569785584</v>
+        <v>0.5813197048733334</v>
       </c>
       <c r="R5">
-        <v>0.05128070256</v>
+        <v>3.48791822924</v>
       </c>
       <c r="S5">
-        <v>0.0001155483682999735</v>
+        <v>0.005159705382316809</v>
       </c>
       <c r="T5">
-        <v>0.0002348082376798325</v>
+        <v>0.007289430628075402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,45 +797,45 @@
         <v>0.19286</v>
       </c>
       <c r="I6">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J6">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8891996666666667</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N6">
-        <v>2.667599</v>
+        <v>0.218831</v>
       </c>
       <c r="O6">
-        <v>0.105535519276905</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P6">
-        <v>0.1437591833380263</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q6">
-        <v>0.05716368257111112</v>
+        <v>0.004689305184444445</v>
       </c>
       <c r="R6">
-        <v>0.51447314314</v>
+        <v>0.04220374666</v>
       </c>
       <c r="S6">
-        <v>0.001159237866416347</v>
+        <v>4.16215603852207E-05</v>
       </c>
       <c r="T6">
-        <v>0.002355711330845456</v>
+        <v>8.820197702569778E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -841,25 +844,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.7882885</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H7">
-        <v>11.576577</v>
+        <v>0.19286</v>
       </c>
       <c r="I7">
-        <v>0.9890156615103705</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J7">
-        <v>0.9836134897531632</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1605563333333333</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N7">
-        <v>0.481669</v>
+        <v>1.209229</v>
       </c>
       <c r="O7">
-        <v>0.01905578313479183</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P7">
-        <v>0.02595755287029415</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q7">
-        <v>0.9293463778355</v>
+        <v>0.02591243388222223</v>
       </c>
       <c r="R7">
-        <v>5.576078267013</v>
+        <v>0.23321190494</v>
       </c>
       <c r="S7">
-        <v>0.0188464679626543</v>
+        <v>0.0002299948263411493</v>
       </c>
       <c r="T7">
-        <v>0.02553219916420226</v>
+        <v>0.0004873915874661612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H8">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I8">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J8">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.5664446666666666</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N8">
-        <v>1.699334</v>
+        <v>0.168642</v>
       </c>
       <c r="O8">
-        <v>0.06722903109309158</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P8">
-        <v>0.09157855736883302</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q8">
-        <v>3.278745149953</v>
+        <v>0.9134101837349999</v>
       </c>
       <c r="R8">
-        <v>19.672470899718</v>
+        <v>3.65364073494</v>
       </c>
       <c r="S8">
-        <v>0.06649056465923524</v>
+        <v>0.008107290019194149</v>
       </c>
       <c r="T8">
-        <v>0.09007790440011811</v>
+        <v>0.007635775533378471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H9">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I9">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J9">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7207635</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N9">
-        <v>13.441527</v>
+        <v>0.481669</v>
       </c>
       <c r="O9">
-        <v>0.797660292168841</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P9">
-        <v>0.7243753443962271</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q9">
-        <v>38.90171807826975</v>
+        <v>1.739232100305</v>
       </c>
       <c r="R9">
-        <v>155.606872313079</v>
+        <v>10.43539260183</v>
       </c>
       <c r="S9">
-        <v>0.7888985215199217</v>
+        <v>0.01543715988605143</v>
       </c>
       <c r="T9">
-        <v>0.7125053603927224</v>
+        <v>0.02180901771437053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H10">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I10">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J10">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08863199999999999</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N10">
-        <v>0.265896</v>
+        <v>1.727297</v>
       </c>
       <c r="O10">
-        <v>0.01051937432637061</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P10">
-        <v>0.01432936202661938</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q10">
-        <v>0.513027586332</v>
+        <v>6.237001735964999</v>
       </c>
       <c r="R10">
-        <v>3.078165517992</v>
+        <v>37.42201041579</v>
       </c>
       <c r="S10">
-        <v>0.01040382595807064</v>
+        <v>0.05535867983967615</v>
       </c>
       <c r="T10">
-        <v>0.01409455378893955</v>
+        <v>0.07820858488086024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1101,170 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H11">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I11">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J11">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.042617</v>
+      </c>
+      <c r="N11">
+        <v>18.085234</v>
+      </c>
+      <c r="O11">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P11">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q11">
+        <v>97.954465144095</v>
+      </c>
+      <c r="R11">
+        <v>391.81786057638</v>
+      </c>
+      <c r="S11">
+        <v>0.8694289506943153</v>
+      </c>
+      <c r="T11">
+        <v>0.8188635529264624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.832535</v>
+      </c>
+      <c r="H12">
+        <v>21.66507</v>
+      </c>
+      <c r="I12">
+        <v>0.9941004204131083</v>
+      </c>
+      <c r="J12">
+        <v>0.9911766576249443</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.218831</v>
+      </c>
+      <c r="O12">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P12">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q12">
+        <v>0.7901648221950001</v>
+      </c>
+      <c r="R12">
+        <v>4.74098893317</v>
+      </c>
+      <c r="S12">
+        <v>0.007013382914458934</v>
+      </c>
+      <c r="T12">
+        <v>0.009908233985274987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.832535</v>
+      </c>
+      <c r="H13">
+        <v>21.66507</v>
+      </c>
+      <c r="I13">
+        <v>0.9941004204131083</v>
+      </c>
+      <c r="J13">
+        <v>0.9911766576249443</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.8891996666666667</v>
-      </c>
-      <c r="N11">
-        <v>2.667599</v>
-      </c>
-      <c r="O11">
-        <v>0.105535519276905</v>
-      </c>
-      <c r="P11">
-        <v>0.1437591833380263</v>
-      </c>
-      <c r="Q11">
-        <v>5.146944204770501</v>
-      </c>
-      <c r="R11">
-        <v>30.881665228623</v>
-      </c>
-      <c r="S11">
-        <v>0.1043762814104886</v>
-      </c>
-      <c r="T11">
-        <v>0.1414034720071809</v>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.209229</v>
+      </c>
+      <c r="O13">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P13">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q13">
+        <v>4.366338488505001</v>
+      </c>
+      <c r="R13">
+        <v>26.19803093103</v>
+      </c>
+      <c r="S13">
+        <v>0.03875495705941234</v>
+      </c>
+      <c r="T13">
+        <v>0.05475149258459765</v>
       </c>
     </row>
   </sheetData>
